--- a/Flux horaire/Panier moyen horaire et journalier septembre 2023.xlsx
+++ b/Flux horaire/Panier moyen horaire et journalier septembre 2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Panier moyen horaire et journal" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>0h-1h</t>
   </si>
   <si>
-    <t>Septtembre</t>
+    <t>Septembre</t>
   </si>
   <si>
     <t>1h-2h</t>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="6"/>
